--- a/plants_insects/survival_assay_in_vitro.xlsx
+++ b/plants_insects/survival_assay_in_vitro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/plants_insects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF1F45-FC84-2747-8D9F-CDDF1A166D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072ADED-D53F-B245-8CB0-FFA341681E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{5B4CB0A4-341C-9344-9A20-63599940416B}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="15320" windowHeight="16940" xr2:uid="{5B4CB0A4-341C-9344-9A20-63599940416B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>day of week</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="20">
   <si>
     <t>Begin exposure period</t>
   </si>
@@ -51,17 +45,65 @@
 Record survival</t>
   </si>
   <si>
-    <t>hours</t>
-  </si>
-  <si>
     <t>Record survival</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Monday Start</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Tuesday Start</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Wednesday Start</t>
+  </si>
+  <si>
+    <t>Thursday Start</t>
+  </si>
+  <si>
+    <t>Friday Start</t>
+  </si>
+  <si>
+    <t>Saturday Start</t>
+  </si>
+  <si>
+    <t>Sunday Start</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Task(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,16 +124,78 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF629CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E93FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE88FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC77CFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB72FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA6AF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF565E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,11 +218,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,10 +277,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,6 +321,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF565E3"/>
+      <color rgb="FFEA6AF1"/>
+      <color rgb="FFDB72FC"/>
+      <color rgb="FFC77CFF"/>
+      <color rgb="FFAE88FF"/>
+      <color rgb="FF8E93FF"/>
+      <color rgb="FF629CFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,77 +660,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65AFA9B-B5BA-6440-B642-FE4187B0AD50}">
-  <dimension ref="A1:C6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="283" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="3.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>-24</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="E7" s="5">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>48</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="G15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>24</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>48</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="C22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>72</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>-24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>